--- a/DB/QuestDB.xlsx
+++ b/DB/QuestDB.xlsx
@@ -39,10 +39,10 @@
     <t>100/200/300</t>
   </si>
   <si>
-    <t>Jusin is So Dangerous!</t>
+    <t>늑대를 잡아라</t>
   </si>
   <si>
-    <t>Kill wolf</t>
+    <t>늑대 죽이기</t>
   </si>
   <si>
     <t>Wolf</t>
@@ -56,11 +56,13 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
